--- a/biology/Zoologie/Cheloctonus_jonesii/Cheloctonus_jonesii.xlsx
+++ b/biology/Zoologie/Cheloctonus_jonesii/Cheloctonus_jonesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheloctonus jonesii est une espèce de scorpions de la famille des Hormuridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Lesotho et au Mozambique[1].
-Sa présence est incertaine au Botswana et en Eswatini[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Lesotho et au Mozambique.
+Sa présence est incertaine au Botswana et en Eswatini.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 75 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 75 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (16/06/2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (16/06/2020) :
 Cheloctonus jonesii jonesii Pocock, 1892
 Cheloctonus jonesii sculpturatus Hewitt, 1914</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de C. R. Jones[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de C. R. Jones.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pocock, 1892 : Descriptions of two new genera of scorpions, with notes upon some species of Palamnaeus. Annals and Magazine of Natural History, sér. 6, vol. 9, p. 38–49 (texte intégral).
 Hewitt, 1914 : Descriptions of new Arachnida from South Africa. Records of the Albany Museum, vol. 3, no 1, p. 1-37.</t>
